--- a/Reduced list.xlsx
+++ b/Reduced list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{8FFC5511-6CDE-4EB0-9B64-5391682290D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AC7C53-FD14-417C-8925-70EEC9D268C1}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{8FFC5511-6CDE-4EB0-9B64-5391682290D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA19E64-841A-4DCC-9A7C-814AFC76CF5D}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="345" windowWidth="12975" windowHeight="15165" xr2:uid="{52D7925A-52C3-4798-AC09-8580D27F180F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14310" windowHeight="15165" xr2:uid="{52D7925A-52C3-4798-AC09-8580D27F180F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="2461">
   <si>
     <t>"https://github.com/zzh-tech/ESTRNN/issues/3"</t>
   </si>
@@ -6145,13 +6145,1276 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuzu-emu/yuzu/issues/4428"</t>
+  </si>
+  <si>
+    <t>"\"Mapped memory page without a pointer\" still happens"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xuannianz/EfficientDet/issues/188"</t>
+  </si>
+  <si>
+    <t>" Check failed: CUDA_SUCCESS == cuDevicePrimaryCtxGetState(device, &amp;former_prima y_context_flags, &amp;former_primary_context_is_active) (0 vs. 303)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xmrig/xmrig/issues/1778"</t>
+  </si>
+  <si>
+    <t>"API with per GPU not per thread results"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xingyizhou/CenterNet/issues/773"</t>
+  </si>
+  <si>
+    <t>"nvcc.exe' failed with exit status 2,    How to solve this problemï¼Ÿ"</t>
+  </si>
+  <si>
+    <t>"https://github.com/wilicc/gpu-burn/issues/22"</t>
+  </si>
+  <si>
+    <t>"Makefile incompatible with cuda 11"</t>
+  </si>
+  <si>
+    <t>"https://github.com/webgpu-native/webgpu-headers/issues/66"</t>
+  </si>
+  <si>
+    <t>"memset/memcpy for mapped buffers in WASM"</t>
+  </si>
+  <si>
+    <t>"https://github.com/wang-xinyu/tensorrtx/issues/50"</t>
+  </si>
+  <si>
+    <t>"Improvement on multi-stream or multi-gpu application"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralytics/yolov5/issues/541"</t>
+  </si>
+  <si>
+    <t>"divide by 0 error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralytics/yolov5/issues/281"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: CUDA error: no kernel image is available for execution on the device (nms_cuda at /tmp/pip-req-build-9d9zypi6/torchvision/csrc/cuda/nms_cuda.cu:127)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ujsyehao/yolov3-multigpu/issues/5"</t>
+  </si>
+  <si>
+    <t>"module must have its parameters and buffers on device cuda:0 (device_ids[0]) but found one of them on device: cuda:1"</t>
+  </si>
+  <si>
+    <t>"https://github.com/traveller59/spconv/issues/193"</t>
+  </si>
+  <si>
+    <t>"Cuda Indicies Segmentation Fault"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/41401"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: cudaGetDevice() failed. Status: CUDA driver version is insufficient for CUDA runtime version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/41169"</t>
+  </si>
+  <si>
+    <t>"failed to query event: CUDA_ERROR_LAUNCH_FAILED: unspecified launch failure tensorflow/stream_executor/dnn.cc:613] CUDNN_STATUS_INTERNAL_ERROR"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/41113"</t>
+  </si>
+  <si>
+    <t>"SyncBatchNormalization layer segfaults on multi-worker with NCCL"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/40920"</t>
+  </si>
+  <si>
+    <t>"E tensorflow/stream_executor/cuda/cuda_driver.cc:406] failed call to cuInit: CUDA_ERROR_NO_DEVICE"</t>
+  </si>
+  <si>
+    <t>"https://github.com/spcl/dace/issues/300"</t>
+  </si>
+  <si>
+    <t>"Various CUDA codegen errors"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/rmm/issues/453"</t>
+  </si>
+  <si>
+    <t>"[BUG] crash from pool_memory_resource"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pocokhc/agent57/issues/3"</t>
+  </si>
+  <si>
+    <t>"CUDA_ERROR_NOT_INITIALIZED"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjreddie/darknet/issues/2251"</t>
+  </si>
+  <si>
+    <t>"CUDA Error: an illegal memory access was encountered python: ./src/cuda.c:36: check_error: Assertion `0' failed. Aborted (core dumped)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjreddie/darknet/issues/2224"</t>
+  </si>
+  <si>
+    <t>"cuda status error: cuda_convert_f32_to_f16() "</t>
+  </si>
+  <si>
+    <t>"https://github.com/openvinotoolkit/openvino/issues/438"</t>
+  </si>
+  <si>
+    <t>"Wrong result on FP16 GPU device"</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/17910"</t>
+  </si>
+  <si>
+    <t>"cv2.cuda.merge returns host memory, not device memory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/17899"</t>
+  </si>
+  <si>
+    <t>"Build error when I check \"cuda_compile_1_generated_gpu_mat.cu\""</t>
+  </si>
+  <si>
+    <t>"https://github.com/open-mmlab/OpenPCDet/issues/10"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: copy_if failed to synchronize: device-side assert triggered"</t>
+  </si>
+  <si>
+    <t>"https://github.com/narzoul/DDrawCompat/issues/73"</t>
+  </si>
+  <si>
+    <t>"nVidia GPU Scheduling (Windows 10 2004) heavy flickering"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mitsuba-renderer/mitsuba2/issues/204"</t>
+  </si>
+  <si>
+    <t>"Cuda Memory Alloc Erorr"</t>
+  </si>
+  <si>
+    <t>"https://github.com/milvus-io/milvus/issues/2766"</t>
+  </si>
+  <si>
+    <t>"[scalar-field-filtering] Async api not ready"</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/vcpkg/issues/12448"</t>
+  </si>
+  <si>
+    <t>"[CUDA] find_package(CUDA 10.1 EXACT) only finds latest installed version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/onnxruntime/issues/4506"</t>
+  </si>
+  <si>
+    <t>"GPU Memory Release Problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/LightGBM/issues/3207"</t>
+  </si>
+  <si>
+    <t>"GPU Error with 'max_bin'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mgawan/GPU-BSW/issues/10"</t>
+  </si>
+  <si>
+    <t>"Sync Differences"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/161"</t>
+  </si>
+  <si>
+    <t>"Support for fixed array buffers"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/154"</t>
+  </si>
+  <si>
+    <t>"Can multiple GPU cores exchange data between each other without through host data transfer?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/lightvector/KataGo/issues/122"</t>
+  </si>
+  <si>
+    <t>"func cudaSetDevice(gpuIdxForThisThread), error unknown error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kubernetes/kubernetes/issues/69276"</t>
+  </si>
+  <si>
+    <t>"GPU Topology Aware Scheduling"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kaldi-asr/kaldi/issues/2195"</t>
+  </si>
+  <si>
+    <t>"Memory allocator for CUDA"</t>
+  </si>
+  <si>
+    <t>"https://github.com/johnlees/dust-gpu-prototype/issues/1"</t>
+  </si>
+  <si>
+    <t>"CUDA Issues"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jessepisel/summer_fellows/issues/47"</t>
+  </si>
+  <si>
+    <t>"Obtain Device with CUDA Support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jczarnowski/DeepFactors/issues/8"</t>
+  </si>
+  <si>
+    <t>"cudaError code: out of memory (2)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/2164"</t>
+  </si>
+  <si>
+    <t>"[SYCL][CUDA] Failing to build executable for nvptx64-*-*-sycldevice target"</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/2120"</t>
+  </si>
+  <si>
+    <t>"[SYCL][CUDA] Link error will happen with '-g' compiling option"</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/2036"</t>
+  </si>
+  <si>
+    <t>"Optimization potential of synchronization on buffer destruction?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/icsharpcode/ILSpy/issues/2079"</t>
+  </si>
+  <si>
+    <t>"Decompile async with dynamic incorrectly"</t>
+  </si>
+  <si>
+    <t>"https://github.com/icecube-trac/tix2/issues/2350"</t>
+  </si>
+  <si>
+    <t>"[clsim] Device detection failure raises confusing error (Trac #2358)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/icecube-trac/tix2/issues/1772"</t>
+  </si>
+  <si>
+    <t>"[icetray] compression/serialization overheads (Trac #1780)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/huggingface/transformers/issues/5887"</t>
+  </si>
+  <si>
+    <t>"PL: same MultiGPU test failing twice!"</t>
+  </si>
+  <si>
+    <t>"https://github.com/horovod/horovod/issues/2113"</t>
+  </si>
+  <si>
+    <t>"ncclCommInitRank failed: internal error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/horovod/horovod/issues/2074"</t>
+  </si>
+  <si>
+    <t>"CUDA error: device not ready"</t>
+  </si>
+  <si>
+    <t>"https://github.com/hashcat/hashcat/issues/2325"</t>
+  </si>
+  <si>
+    <t>"Multiple GPU Problem "</t>
+  </si>
+  <si>
+    <t>"https://github.com/gprMax/gprMax/issues/264"</t>
+  </si>
+  <si>
+    <t>"GPU import error with cuda and pycuda"</t>
+  </si>
+  <si>
+    <t>"https://github.com/google/jax/issues/3753"</t>
+  </si>
+  <si>
+    <t>"Cuda Error (209): cudaLaunchKernel returned cudaErrorNoKernelImageForDevice"</t>
+  </si>
+  <si>
+    <t>"https://github.com/google/automl/issues/555"</t>
+  </si>
+  <si>
+    <t>"Check failed: CUDA_SUCCESS == cuDevicePrimaryCtxGetState(device, &amp;former_prima y_context_flags, &amp;former_primary_context_is_active) (0 vs. 303)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gnuradio/newsched/issues/16"</t>
+  </si>
+  <si>
+    <t>"Block kernels: Multiple work functions "</t>
+  </si>
+  <si>
+    <t>"https://github.com/glotzerlab/hoomd-blue/issues/508"</t>
+  </si>
+  <si>
+    <t>"Support the new `__cuda_array_interface__` protocol"</t>
+  </si>
+  <si>
+    <t>"https://github.com/espnet/espnet/issues/2160"</t>
+  </si>
+  <si>
+    <t>"Use GPU decoding but raise CUDA error: all CUDA-capable devices are busy or unavailable"</t>
+  </si>
+  <si>
+    <t>"https://github.com/erikwijmans/Pointnet2_PyTorch/issues/121"</t>
+  </si>
+  <si>
+    <t>"CUDA kernel failed: invalid device function"</t>
+  </si>
+  <si>
+    <t>"https://github.com/dwofk/fast-depth/issues/22"</t>
+  </si>
+  <si>
+    <t>"Error: CUDAError: Check failed: ret == 0 (-1 vs. 0) : cuModuleLoadData(&amp;(module_[device_id]), data_.c_str()) failed with error: CUDA_ERROR_INVALID_PTX"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3652"</t>
+  </si>
+  <si>
+    <t>"NaN when using big-endian arrays"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/578"</t>
+  </si>
+  <si>
+    <t>"'free_all_blocks' of 'cupy.cuda.memory.MemoryPool' object needs an argument"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/2087"</t>
+  </si>
+  <si>
+    <t>"cupy.cuda.compiler.CompileException: nvrtc: error: invalid value for --gpu-architecture (-arch) error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/codezonediitj/adaboost/issues/8"</t>
+  </si>
+  <si>
+    <t>"Bug in matrix multiplication using shared memory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/chufengt/iccv19_attribute/issues/18"</t>
+  </si>
+  <si>
+    <t>"FLOPS Problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/chrmarti/testissues/issues/11880"</t>
+  </si>
+  <si>
+    <t>"Settings Sync fails because device is making too many requests"</t>
+  </si>
+  <si>
+    <t>"https://github.com/celeritas-project/celeritas/issues/2"</t>
+  </si>
+  <si>
+    <t>"Add CUDA random number generator"</t>
+  </si>
+  <si>
+    <t>"https://github.com/arrayfire/arrayfire/issues/2979"</t>
+  </si>
+  <si>
+    <t>"[BUG] ArrayFire crashes when accessing af::features from multiple threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/amaiya/ktrain/issues/218"</t>
+  </si>
+  <si>
+    <t>"Cuda runtime error: device-side assert triggered"</t>
+  </si>
+  <si>
+    <t>"https://github.com/SeldonIO/seldon-core/issues/1662"</t>
+  </si>
+  <si>
+    <t>"GPU deadlock for pytorch models using the python wrapper"</t>
+  </si>
+  <si>
+    <t>"https://github.com/RoaringBitmap/CRoaring/issues/233"</t>
+  </si>
+  <si>
+    <t>"Add support for CUDA API for read operations"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/2456"</t>
+  </si>
+  <si>
+    <t>"multi-gpu training triggers CUDA out of memory error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Project-MONAI/MONAI/issues/789"</t>
+  </si>
+  <si>
+    <t>"CUDA implementation of higher-order image resampling (e.g. cubic spline)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PrincetonUniversity/install_pytorch/issues/7"</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenNMT/CTranslate2/issues/82"</t>
+  </si>
+  <si>
+    <t>"Dynamic loading of NVIDIA libraries"</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenNMT/CTranslate2/issues/224"</t>
+  </si>
+  <si>
+    <t>"FP16 support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenMined/PySyft/issues/3866"</t>
+  </si>
+  <si>
+    <t>"Device"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Oblomov/clinfo/issues/51"</t>
+  </si>
+  <si>
+    <t>"clGetDeviceIDs(NULL, CL_DEVICE_TYPE_ALL, ...) printing random bytes"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIAGameWorks/PhysX/issues/325"</t>
+  </si>
+  <si>
+    <t>"Static CUDA libraries"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1807"</t>
+  </si>
+  <si>
+    <t>"cmake build error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1794"</t>
+  </si>
+  <si>
+    <t>"fp16 issue in 20.03"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1793"</t>
+  </si>
+  <si>
+    <t>"Auto switching between GPU and CPU for production environment?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/360"</t>
+  </si>
+  <si>
+    <t>"failed to open CUDA IPC handle at cuda initialization"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/357"</t>
+  </si>
+  <si>
+    <t>"Computation gets slower when overlapped with NCCL communication"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/356"</t>
+  </si>
+  <si>
+    <t>"CUDA_ERROR_TOO_MANY_PEERS after export NCCL_P2P_DISABLE=1 "</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/PyProf/issues/33"</t>
+  </si>
+  <si>
+    <t>"Multi-GPU communication outputs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/MVIG-SJTU/AlphAction/issues/8"</t>
+  </si>
+  <si>
+    <t>"multi-thread problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Lut99/RayTracer-2/issues/13"</t>
+  </si>
+  <si>
+    <t>"Experiment with reducing code duplication by using CUDA's __host__ __device__ tags and inheritance"</t>
+  </si>
+  <si>
+    <t>"https://github.com/LaurentMazare/tch-rs/issues/234"</t>
+  </si>
+  <si>
+    <t>"Cuda Stream Support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/KhronosGroup/OpenCL-CTS/issues/835"</t>
+  </si>
+  <si>
+    <t>"Floating-point arithmetic question"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaLang/julia/issues/36752"</t>
+  </si>
+  <si>
+    <t>"EXCEPTION_ACCESS_VIOLATION from train! using Threads.@threads and CuArrays"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/43"</t>
+  </si>
+  <si>
+    <t>"Matrix examples fails on Julia 1.4"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/113"</t>
+  </si>
+  <si>
+    <t>"Broadcasting fails with CUDA: unsupported dynamic function invocation (call to overdub)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/112"</t>
+  </si>
+  <si>
+    <t>"@print functionality inconsistent with CUDADevice()"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/81"</t>
+  </si>
+  <si>
+    <t>"CuArrays.zeros(T, 0) fails"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Hardware-Alchemy/cuDNN-sample/issues/2"</t>
+  </si>
+  <si>
+    <t>"nvcc fatal   : Unsupported gpu architecture 'compute_30'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/HKUST-Aerial-Robotics/Teach-Repeat-Replan/issues/43"</t>
+  </si>
+  <si>
+    <t>"Some problem about CUDA"</t>
+  </si>
+  <si>
+    <t>"https://github.com/BOINC/boinc/issues/3893"</t>
+  </si>
+  <si>
+    <t>"CUDA version number truncated"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yxgeee/SpCL/issues/1"</t>
+  </si>
+  <si>
+    <t>"num of gpus"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuzu-emu/yuzu/issues/4067"</t>
+  </si>
+  <si>
+    <t>"Async off and loading with an OpenGL shader cache produces no video output and crashes soon after"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xuannianz/EfficientDet/issues/177"</t>
+  </si>
+  <si>
+    <t>"https://github.com/vorner/vorner.github.io/issues/20"</t>
+  </si>
+  <si>
+    <t>"comment on SIMD and scalable vectors"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralytics/yolov3/issues/1295"</t>
+  </si>
+  <si>
+    <t>"CUDA error: all CUDA-capable devices are busy or unvailable"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/40872"</t>
+  </si>
+  <si>
+    <t>"failed call to cuInit: CUDA_ERROR_UNKNOWN: unknown error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/40814"</t>
+  </si>
+  <si>
+    <t>"CUDA illegal error access error when running distributed mixed precision"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/40603"</t>
+  </si>
+  <si>
+    <t>"cudaGetDevice() failed. Status: cudaGetErrorString symbol not found."</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/38120"</t>
+  </si>
+  <si>
+    <t>"TF_GPU_ALLOCATOR=cuda_malloc and the GPUBFC allocator is still used."</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/datasets/issues/1975"</t>
+  </si>
+  <si>
+    <t>"Strange CUDA_ERROR_OPERATING_SYSTEM error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/renatoviolin/electra-squad-8GB/issues/2"</t>
+  </si>
+  <si>
+    <t>"GPU memory occupation"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ray-project/ray/issues/6774"</t>
+  </si>
+  <si>
+    <t>"Fully utilizing GPUS with synchronous algorithms (e.g. PPO/A2C)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/rmm/issues/352"</t>
+  </si>
+  <si>
+    <t>"[FEA] CUDA stream pool"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/40020"</t>
+  </si>
+  <si>
+    <t>"Caffe2 operation switches current CUDA stream"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/32424"</t>
+  </si>
+  <si>
+    <t>"Multiple CUDA contexts created on first GPU when using pin_memory=True, multiprocessing and torch.cat()"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/fairseq/issues/2216"</t>
+  </si>
+  <si>
+    <t>"ZeroDivisionError: division by zero"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjreddie/darknet/issues/2192"</t>
+  </si>
+  <si>
+    <t>"CUDA status Error: file: ./src/dark_cuda.c : () : line: 239 : build time: Jun 16 2020 - 20:18:49    CUDA Error: invalid argument CUDA Error: invalid argument: File exists darknet: ./src/utils.c:326: error: Assertion `0' failed."</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/11933"</t>
+  </si>
+  <si>
+    <t>"cuda compile fails (nvcc fatal)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/open-mmlab/mmdetection/issues/2312"</t>
+  </si>
+  <si>
+    <t>"FP16 error in multi gpu"</t>
+  </si>
+  <si>
+    <t>"https://github.com/nerox8664/onnx2keras/issues/73"</t>
+  </si>
+  <si>
+    <t>"cudaGetDevice() failed. Status: CUDA driver version is insufficient for CUDA runtime version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU.Samples/issues/10"</t>
+  </si>
+  <si>
+    <t>"Math.Round() Unsupported!"</t>
+  </si>
+  <si>
+    <t>"https://github.com/lukepark327/DDL-simulator/issues/10"</t>
+  </si>
+  <si>
+    <t>"Multi-thread"</t>
+  </si>
+  <si>
+    <t>"https://github.com/joe-siyuan-qiao/DetectoRS/issues/13"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: copy_if failed to synchronize: device-side assert triggered terminate called after throwing an instance of 'c10::Error'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/joe-siyuan-qiao/DetectoRS/issues/10"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: cuda runtime error (209) "</t>
+  </si>
+  <si>
+    <t>"https://github.com/huggingface/transformers/issues/3495"</t>
+  </si>
+  <si>
+    <t>"CUDA error: CUBLAS_STATUS_ALLOC_FAILED When running language modeling using bert-base-cased"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuweb/gpuweb/issues/872"</t>
+  </si>
+  <si>
+    <t>"Out of memory handling for GPUBuffer mapping"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuweb/gpuweb/issues/862"</t>
+  </si>
+  <si>
+    <t>"Barriers?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpujs/gpu.js/issues/618"</t>
+  </si>
+  <si>
+    <t>"Math.max and Math.min only accept two parameters"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ginkgo-project/ginkgo/issues/461"</t>
+  </si>
+  <si>
+    <t>"CUDA executor always calls `cudaDeviceReset()` when destroyed"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gfx-rs/wgpu/issues/362"</t>
+  </si>
+  <si>
+    <t>"copy_buffer_to_buffer with size 0 causes floating point exception on Metal"</t>
+  </si>
+  <si>
+    <t>"https://github.com/fuzhenxin/text_style_transfer/issues/7"</t>
+  </si>
+  <si>
+    <t>"GpuArrayException: cuMemAlloc: CUDA_ERROR_OUT_OF_MEMORY: out of memory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3452"</t>
+  </si>
+  <si>
+    <t>"Mapped memory functionality (zero-copy)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3431"</t>
+  </si>
+  <si>
+    <t>"Copy Memory-mapped file into CuPy array"</t>
+  </si>
+  <si>
+    <t>"https://github.com/beehive-lab/TornadoVM/issues/20"</t>
+  </si>
+  <si>
+    <t>"Runtime error: Generated Kernel is NULL"</t>
+  </si>
+  <si>
+    <t>"https://github.com/arrayfire/arrayfire/issues/2955"</t>
+  </si>
+  <si>
+    <t>"[BUG] [CUDA] deadlock/freeze with reduce by key"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ZoneMinder/zoneminder/issues/2966"</t>
+  </si>
+  <si>
+    <t>"CUDA/OpenCL multi-device accelleration"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Yey007/FastMatrices/issues/4"</t>
+  </si>
+  <si>
+    <t>"Use Multidimensional ExchangeBuffers for data transfer"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ThilinaRajapakse/simpletransformers/issues/443"</t>
+  </si>
+  <si>
+    <t>"apex FP16 causes CUDA Memory Overflow with multiple model runs (hyperparameter tuning) -- bypass with FP32"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1662"</t>
+  </si>
+  <si>
+    <t>"Fine grained Division"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/cuda-samples/issues/44"</t>
+  </si>
+  <si>
+    <t>"nvcc fatal   : Unsupported gpu architecture 'compute_80'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/KhronosGroup/GLSL/issues/127"</t>
+  </si>
+  <si>
+    <t>"Increase GL_MAX_COMPUTE_UNIFORM_BLOCKS and GL_MAX_COMPUTE_SHADER_STORAGE_BLOCKS interface block constrains in compute shaders with extensions."</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/240"</t>
+  </si>
+  <si>
+    <t>"Broadcasting fails with Float64 -&gt; Int conversion"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JacksonKearl/testissues/issues/5973"</t>
+  </si>
+  <si>
+    <t>"sync stop"</t>
+  </si>
+  <si>
+    <t>"https://github.com/FluxML/Zygote.jl/issues/665"</t>
+  </si>
+  <si>
+    <t>"Zygote doesn't work with CUDA.CuArray"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ECP-WarpX/WarpX/issues/1136"</t>
+  </si>
+  <si>
+    <t>"GPU vs CPU Benchmark"</t>
+  </si>
+  <si>
+    <t>"https://github.com/DiligentGraphics/DiligentEngine/issues/88"</t>
+  </si>
+  <si>
+    <t>"How to allocate GPU memory using different options"</t>
+  </si>
+  <si>
+    <t>"https://github.com/DiligentGraphics/DiligentEngine/issues/87"</t>
+  </si>
+  <si>
+    <t>"How to synchronize after flush"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AntonMu/TrainYourOwnYOLO/issues/149"</t>
+  </si>
+  <si>
+    <t>"Multiple streams in multiple GPUs and in multiple processes finally working"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AliyunContainerService/gpushare-device-plugin/issues/26"</t>
+  </si>
+  <si>
+    <t>"Concurrently create sharegpu instance will cause creation to fail"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Algomorph/InfiniTAM/issues/234"</t>
+  </si>
+  <si>
+    <t>"Resolve thread-blocking in new FillBlocksFunctor CPU version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zhmiao/OpenLongTailRecognition-OLTR/issues/56"</t>
+  </si>
+  <si>
+    <t>"Stage 2 multi GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yzhangcs/parser/issues/27"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: copy_if failed to synchronize "</t>
+  </si>
+  <si>
+    <t>"https://github.com/xmrig/xmrig/issues/1693"</t>
+  </si>
+  <si>
+    <t>"thread #0 failed with error &lt;randomx_prepare&gt;:45 \"out of memory\""</t>
+  </si>
+  <si>
+    <t>"https://github.com/vita-epfl/openpifpaf/issues/204"</t>
+  </si>
+  <si>
+    <t>"Error: CUDA out of memory and assertion error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralytics/yolov3/issues/1155"</t>
+  </si>
+  <si>
+    <t>"2080Ti GPU memory is easy not enough for yolov4"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ultralytics/yolov3/issues/1123"</t>
+  </si>
+  <si>
+    <t>"`WARNING: non-finite loss, ending training  tensor([nan, nan, 0., nan], device='cuda:0')`"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorpack/tensorpack/issues/1434"</t>
+  </si>
+  <si>
+    <t>"cuDNN launch failure : input shape([1,3,933,613]) filter shape([7,7,3,64])"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/39264"</t>
+  </si>
+  <si>
+    <t>"E tensorflow/stream_executor/cuda/cuda_dnn.cc:329] Could not create cudnn handle: CUDNN_STATUS_INTERNAL_ERROR"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/39052"</t>
+  </si>
+  <si>
+    <t>"Inference blocks indefinitely on GPU when Eager mode is enabled"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/39006"</t>
+  </si>
+  <si>
+    <t>"Thread hang for Stage/MapStage op when setting inter_op_parallelism_threads=1"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tempdata73/MtcnnMaskDetection/issues/1"</t>
+  </si>
+  <si>
+    <t>"Getting CUDA error when using GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tbepler/topaz/issues/51"</t>
+  </si>
+  <si>
+    <t>"Number of threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/snobu/destreamer/issues/143"</t>
+  </si>
+  <si>
+    <t>"deploy GPU for encoding"</t>
+  </si>
+  <si>
+    <t>"https://github.com/shaposhnikoff/arduino-wemos-esp8266/issues/134"</t>
+  </si>
+  <si>
+    <t>"CUDA status Error: file: ..\\..\\src\\dark_cuda.c : cuda_push_array() : line: 469"</t>
+  </si>
+  <si>
+    <t>"https://github.com/roytseng-tw/Detectron.pytorch/issues/231"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rowanz/grover/issues/39"</t>
+  </si>
+  <si>
+    <t>"multi-gpu"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rogerallen/raytracinginoneweekendincuda/issues/7"</t>
+  </si>
+  <si>
+    <t>"CUDA error = 999at main.cu:196'cudaDeviceSynchronize()/n with High Resolution"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rodriados/msa/issues/16"</t>
+  </si>
+  <si>
+    <t>"Avoid GPU memory allocation by master node in pairwise module"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cudf/issues/5110"</t>
+  </si>
+  <si>
+    <t>"[BUG] Cast from string to long should return null if string is not a valid long"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cudf/issues/5098"</t>
+  </si>
+  <si>
+    <t>"[BUG] Casting floating-point to string produces incorrect value for negative zero"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/38719"</t>
+  </si>
+  <si>
+    <t>"Building NVCC (Device) failed when building from source"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/38642"</t>
+  </si>
+  <si>
+    <t>"Synchronization problem in torch.distributed with MPI on CUDA "</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/38018"</t>
+  </si>
+  <si>
+    <t>"median with float64, lot of nans, and dim=1 returns random results in CUDA"</t>
+  </si>
+  <si>
+    <t>"https://github.com/nihui/waifu2x-ncnn-vulkan/issues/16"</t>
+  </si>
+  <si>
+    <t>"System crash when using large block sizes"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mratsim/weave/issues/133"</t>
+  </si>
+  <si>
+    <t>"Cuda scheduling"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mitsuba-renderer/enoki/issues/89"</t>
+  </si>
+  <si>
+    <t>"Specifying array sizes for CUDAArray template."</t>
+  </si>
+  <si>
+    <t>"https://github.com/lightvector/KataGo/issues/228"</t>
+  </si>
+  <si>
+    <t>"OpenCL can not run multiple threads on different GPU platforms"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kokkos/kokkos/issues/3053"</t>
+  </si>
+  <si>
+    <t>"Launching 2D/3D Thread Teams"</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/1750"</t>
+  </si>
+  <si>
+    <t>"peer2peer memory access"</t>
+  </si>
+  <si>
+    <t>"https://github.com/intel/llvm/issues/1665"</t>
+  </si>
+  <si>
+    <t>"[SYCL][CUDA] Default selector behaviour"</t>
+  </si>
+  <si>
+    <t>"https://github.com/hkzhang95/DynamicRCNN/issues/2"</t>
+  </si>
+  <si>
+    <t>"Synchronization between multiple gpu"</t>
+  </si>
+  <si>
+    <t>"https://github.com/guillaume-be/rust-bert/issues/24"</t>
+  </si>
+  <si>
+    <t>"Question: Device::Cuda throwing an Error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gfx-rs/wgpu/issues/648"</t>
+  </si>
+  <si>
+    <t>"Multi threaded memory leak"</t>
+  </si>
+  <si>
+    <t>"https://github.com/garrettwrong/cuTWED/issues/2"</t>
+  </si>
+  <si>
+    <t>"Separate malloc and memcpy"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/faiss/issues/1194"</t>
+  </si>
+  <si>
+    <t>"CUDA error 77 an illegal memory access was encountered"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/faiss/issues/1191"</t>
+  </si>
+  <si>
+    <t>"@error: 'index_gpu_to_cpu' is not a member of 'faiss::gpu'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/faiss/issues/1173"</t>
+  </si>
+  <si>
+    <t>"failed to cudaHostAlloc while using GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/espnet/espnet/issues/1945"</t>
+  </si>
+  <si>
+    <t>"Multi-machine multi-gpu training with slurm appears cuda oom"</t>
+  </si>
+  <si>
+    <t>"https://github.com/dmlc/xgboost/issues/5706"</t>
+  </si>
+  <si>
+    <t>"No CMAKE_CUDA_COMPILER could be found."</t>
+  </si>
+  <si>
+    <t>"https://github.com/davidpanderson/science_united/issues/33"</t>
+  </si>
+  <si>
+    <t>"Problem synchronizing with GPUGRID.net"</t>
+  </si>
+  <si>
+    <t>"https://github.com/clEsperanto/pyclesperanto_prototype/issues/3"</t>
+  </si>
+  <si>
+    <t>"Division by zero"</t>
+  </si>
+  <si>
+    <t>"https://github.com/choderalab/perses/issues/669"</t>
+  </si>
+  <si>
+    <t>"CUDA address error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/brain-research/deep-molecular-massspec/issues/19"</t>
+  </si>
+  <si>
+    <t>"GPU, CPU multi thread"</t>
+  </si>
+  <si>
+    <t>"https://github.com/baldurk/renderdoc/issues/1913"</t>
+  </si>
+  <si>
+    <t>"Crash during D3D11 capture when a buffer is mapped simultaneously on 2 threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/awslabs/djl/issues/78"</t>
+  </si>
+  <si>
+    <t>"YOLO Models trained with Coco and Darknet53 return Cuda Memory error (MxNet engine)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/autowarefoundation/autoware/issues/111"</t>
+  </si>
+  <si>
+    <t>"cuda_memcheck reports error in calc_a_score"</t>
+  </si>
+  <si>
+    <t>"https://github.com/anthonydresser/testissues/issues/3004"</t>
+  </si>
+  <si>
+    <t>"Copy does not work"</t>
+  </si>
+  <si>
+    <t>"https://github.com/anthonydresser/testissues/issues/3002"</t>
+  </si>
+  <si>
+    <t>"Profiler error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/almarklein/wgpu-py/issues/105"</t>
+  </si>
+  <si>
+    <t>"Thread panicked when creating mapped buffer"</t>
+  </si>
+  <si>
+    <t>"https://github.com/RavenCommunity/kawpowminer/issues/9"</t>
+  </si>
+  <si>
+    <t>"Unexpected CUDA Error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Plagman/gamescope/issues/57"</t>
+  </si>
+  <si>
+    <t>"ThreadSanitizer race conditions"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PaddlePaddle/Paddle/issues/24802"</t>
+  </si>
+  <si>
+    <t>"Error: cudaMemcpy failed in paddle::platform::GpuMemcpySync"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVlabs/NVBit/issues/18"</t>
+  </si>
+  <si>
+    <t>"nvbit_at_context_init_hook(): Assertion `cudaGetLastError() == cudaSuccess' failed"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1321"</t>
+  </si>
+  <si>
+    <t>"Core dump when all CUDA-capable devices are busy or unavailable"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/k8s-device-plugin/issues/169"</t>
+  </si>
+  <si>
+    <t>"Support sharing GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/VideoProcessingFramework/issues/52"</t>
+  </si>
+  <si>
+    <t>"Set gpu devices"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/VideoProcessingFramework/issues/12"</t>
+  </si>
+  <si>
+    <t>"Failed to be used in multi-thread application"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/TensorRT/issues/561"</t>
+  </si>
+  <si>
+    <t>"multi threads no concurrency effect"</t>
+  </si>
+  <si>
+    <t>"https://github.com/LaLuMaSh/Hardware-Konfigurator/issues/9"</t>
+  </si>
+  <si>
+    <t>"GPU Page"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/GPUArrays.jl/issues/275"</t>
+  </si>
+  <si>
+    <t>"Generic cuda kernel for indexing a CuArray with CuArrays"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/61"</t>
+  </si>
+  <si>
+    <t>"sync_threads() appears to not be sync'ing threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDA.jl/issues/105"</t>
+  </si>
+  <si>
+    <t>"copyto!(Device, Host) uses scalar iteration in case of type mismatch"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ComputationalRadiationPhysics/picongpu/issues/3241"</t>
+  </si>
+  <si>
+    <t>"EventStream::~EventStream() causes dead when exit() is called in alpaka kernel"</t>
+  </si>
+  <si>
+    <t>"https://github.com/CompPhysVienna/n2p2/issues/43"</t>
+  </si>
+  <si>
+    <t>"n2p2 in GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/5763"</t>
+  </si>
+  <si>
+    <t>"Correlation between GPU/CUDAS and yolov3 parameters"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/5672"</t>
+  </si>
+  <si>
+    <t>"YOLO-v4 learning with different GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/5547"</t>
+  </si>
+  <si>
+    <t>"Cuda Error + AVG Loss Nan"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6310,6 +7573,27 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6656,7 +7940,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6797,6 +8081,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7152,10 +8439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7DED00-0D49-4FF3-B928-E7DE8616873A}">
-  <dimension ref="A1:C1037"/>
+  <dimension ref="A1:C1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1031" workbookViewId="0">
-      <selection activeCell="B573" sqref="B573"/>
+    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
+      <selection activeCell="A1248" sqref="A1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15660,6 +16947,1827 @@
         <v>2035</v>
       </c>
     </row>
+    <row r="1039" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="141" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1039" s="138" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1039" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="138" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1040" s="138" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="141" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1041" s="138" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="138" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1042" s="138" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1042" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="138" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1043" s="138" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="141" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1044" s="138" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="141" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1045" s="138" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="138" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1046" s="138" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="138" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1047" s="138" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="141" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1048" s="138" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="138" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1049" s="138" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C1049" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="138" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1050" s="138" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="138" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1051" s="138" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="138" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1052" s="138" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="138" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1053" s="138" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="141" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1054" s="138" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1054" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="138" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1055" s="138" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="138" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1056" s="138" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="138" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1057" s="138" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="138" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1058" s="138" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1058" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="141" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1059" s="138" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="141" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B1060" s="138" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1060" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="138" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1061" s="138" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="138" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1062" s="138" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="138" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1063" s="138" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="138" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1064" s="138" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="138" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1065" s="138" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="138" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1066" s="138" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1066" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="141" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1067" s="138" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="138" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1068" s="138" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="141" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1069" s="138" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1069" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="138" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1070" s="138" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="141" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1071" s="138" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="141" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1072" s="138" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="138" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1073" s="138" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="141" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1074" s="138" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1074" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="141" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1075" s="138" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1075" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="138" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1076" s="138" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="138" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1077" s="138" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="141" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1078" s="138" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="138" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1079" s="138" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="138" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1080" s="138" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="138" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1081" s="138" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="138" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1082" s="138" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="138" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1083" s="138" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="138" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1084" s="138" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="138" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1085" s="138" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="138" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1086" s="138" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="138" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1087" s="138" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="138" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1088" s="138" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="141" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1089" s="138" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="140" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1090" s="138" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1090" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="138" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1091" s="138" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="138" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1092" s="138" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="140" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1093" s="138" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="138" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1094" s="138" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="140" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1095" s="138" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1095" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="140" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1096" s="138" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="138" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1097" s="138" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="140" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1098" s="138" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="138" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1099" s="138" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="138" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1100" s="138" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="138" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1101" s="138" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="140" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1102" s="138" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="138" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1103" s="138" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="140" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1104" s="138" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="138" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1105" s="138" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C1105" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="138" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1106" s="138" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="138" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1107" s="138" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="138" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1108" s="138" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="138" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1109" s="138" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="138" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1110" s="138" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="138" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1111" s="138" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="140" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1112" s="138" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="140" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1113" s="138" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1113" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="138" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1114" s="138" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="138" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1115" s="138" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="138" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1116" s="138" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="138" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1117" s="138" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="138" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1118" s="138" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1118" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="138" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1119" s="138" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1119" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="140" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="140" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="138" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1122" s="138" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="138" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1123" s="138" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="138" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1124" s="138" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C1124" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="138" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1125" s="138" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="138" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1126" s="138" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1126" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="138" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1127" s="138" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="140" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1128" s="138" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1128" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="140" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1129" s="138" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1129" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="138" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1130" s="138" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="138" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1131" s="138" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C1131" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="138" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1132" s="138" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="138" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1133" s="138" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="138" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1135" s="138" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="138" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1136" s="138" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="138" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1137" s="138" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="138" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1138" s="138" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C1138" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="138" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1139" s="138" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="138" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1140" s="138" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="138" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1141" s="138" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="138" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1142" s="138" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="142" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1143" s="138" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="138" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1144" s="138" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="138" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1145" s="138" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="142" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1146" s="138" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="138" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1147" s="138" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="142" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1148" s="138" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1148" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="142" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B1149" s="138" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="138" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B1150" s="138" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="138" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1151" s="138" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="142" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1152" s="138" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="138" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1153" s="138" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="138" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1154" s="138" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1154" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="142" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1155" s="138" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="138" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1156" s="138" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="138" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1157" s="138" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="138" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1158" s="138" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="142" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B1159" s="138" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="142" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1160" s="138" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C1160" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="138" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1161" s="138" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C1161" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="138" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1162" s="138" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="138" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1163" s="138" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="142" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1164" s="138" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="138" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1165" s="138" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="138" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1166" s="138" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="142" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1167" s="138" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C1167" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="142" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1168" s="138" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="138" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1169" s="138" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="142" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1170" s="138" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="138" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1171" s="138" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="142" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1172" s="138" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="138" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1173" s="138" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="142" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B1174" s="138" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="142" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B1175" s="138" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="138" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B1176" s="138" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="142" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B1177" s="138" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="138" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1178" s="138" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="142" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1179" s="138" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="138" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1180" s="138" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="138" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1181" s="138" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="142" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1182" s="138" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="142" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1183" s="138" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1183" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="138" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1184" s="138" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1184" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="138" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1185" s="138" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="138" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1187" s="138" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="138" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1188" s="138" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="141" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1189" s="138" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="138" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1190" s="138" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="138" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1191" s="138" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="138" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1192" s="138" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="138" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1193" s="138" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="138" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1194" s="138" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="138" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1195" s="138" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="138" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1196" s="138" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="141" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1197" s="138" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="138" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1198" s="138" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="138" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1199" s="138" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="138" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1200" s="138" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="138" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1201" s="138" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="138" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1202" s="138" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="141" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1203" s="138" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="141" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1204" s="138" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="138" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1205" s="138" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="138" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1206" s="138" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="138" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1207" s="138" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C1207" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="141" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1208" s="138" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="141" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1209" s="138" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="138" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1210" s="138" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="141" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B1211" s="138" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C1211" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="141" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B1212" s="138" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="141" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B1213" s="138" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="141" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1214" s="138" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1214" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="138" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1215" s="138" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C1215" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="141" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1216" s="138" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="138" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1217" s="138" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="138" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1218" s="138" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="138" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1219" s="138" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="141" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1220" s="138" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="141" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1221" s="138" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="138" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B1222" s="138" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="141" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B1223" s="138" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="138" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B1224" s="138" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="138" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1225" s="138" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="138" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1226" s="138" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1226" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="141" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1227" s="138" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C1227" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="138" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1228" s="138" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="138" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1229" s="138" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="138" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1230" s="138" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="141" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1231" s="138" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="141" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1232" s="138" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="138" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1233" s="138" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="138" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1234" s="138" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="138" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1235" s="138" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="138" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1236" s="138" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="138" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1237" s="138" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C1237" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="138" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1238" s="138" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="138" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1239" s="138" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="138" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1240" s="138" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="138" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1241" s="138" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C1241" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="141" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1242" s="138" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="141" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1243" s="138" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="141" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1244" s="138" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="138" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1245" s="138" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="141" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1246" s="138" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="141" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B1247" s="138" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C1247" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="141" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1248" s="138" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="138" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1249" s="138" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="138" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1250" s="138" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="138" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1251" s="138" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C1251" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="138" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1252" s="138" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="138" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1253" s="138" t="s">
+        <v>2460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Reduced list.xlsx
+++ b/Reduced list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bb0d295c9c231f/Desktop/GPU Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="8_{8FFC5511-6CDE-4EB0-9B64-5391682290D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA19E64-841A-4DCC-9A7C-814AFC76CF5D}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{8FFC5511-6CDE-4EB0-9B64-5391682290D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52690788-400D-4CA3-B48C-6CF591BC0893}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14310" windowHeight="15165" xr2:uid="{52D7925A-52C3-4798-AC09-8580D27F180F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52D7925A-52C3-4798-AC09-8580D27F180F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="3033">
   <si>
     <t>"https://github.com/zzh-tech/ESTRNN/issues/3"</t>
   </si>
@@ -7408,6 +7408,1722 @@
   </si>
   <si>
     <t>"Cuda Error + AVG Loss Nan"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zylo117/Yet-Another-EfficientDet-Pytorch/issues/216"</t>
+  </si>
+  <si>
+    <t>"CUDA error: invalud device ordinal"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zylo117/Yet-Another-EfficientDet-Pytorch/issues/146"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zpzim/SCAMP/issues/14"</t>
+  </si>
+  <si>
+    <t>"Max tile size guidelines?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuzu-emu/yuzu/issues/3803"</t>
+  </si>
+  <si>
+    <t>"CPU utilization, Improve multithreading. GPU optimizations"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuzu-emu/yuzu/issues/3796"</t>
+  </si>
+  <si>
+    <t>"Asynchronous GPU emulation incompatible with yuzu-cmd"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yildirimyigit/phd_studies/issues/38"</t>
+  </si>
+  <si>
+    <t>"Try out cupy"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xxxserxxx/gotop/issues/113"</t>
+  </si>
+  <si>
+    <t>"`devices` is not thread-safe"</t>
+  </si>
+  <si>
+    <t>"https://github.com/vt-vl-lab/3d-photo-inpainting/issues/3"</t>
+  </si>
+  <si>
+    <t>"Using CPU instead of CUDA"</t>
+  </si>
+  <si>
+    <t>"https://github.com/visit-dav/visit/issues/682"</t>
+  </si>
+  <si>
+    <t>"stale or incorrectly sized readbacks during SR GPU rendering"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ucbdrive/few-shot-object-detection/issues/11"</t>
+  </si>
+  <si>
+    <t>"nvcc fatal : Unsupported gpu architecture 'compute 61'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/traveller59/spconv/issues/126"</t>
+  </si>
+  <si>
+    <t>"nvcc fatal : Unsupported gpu architecture 'compute_75',when install spconv with cuda 9 or 10.1"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/37978"</t>
+  </si>
+  <si>
+    <t>" cudaGetDevice() failed. Status: CUDA driver version is insufficient for CUDA runtime version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/mesh/issues/101"</t>
+  </si>
+  <si>
+    <t>"mixed precision support on GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/866"</t>
+  </si>
+  <si>
+    <t>"[CUDA] LLVM module broken on kernel compile"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/664"</t>
+  </si>
+  <si>
+    <t>"[OpenGL] Ship OpenGL backend"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/603"</t>
+  </si>
+  <si>
+    <t>"[OpenGL] performance profiling&amp;improving"</t>
+  </si>
+  <si>
+    <t>"https://github.com/stereolabs/zed-yolo/issues/29"</t>
+  </si>
+  <si>
+    <t>"CUDA status Error: file: ./src/convolutional_kernels.cu : ()"</t>
+  </si>
+  <si>
+    <t>"https://github.com/renatoviolin/Bart_T5-summarization/issues/2"</t>
+  </si>
+  <si>
+    <t>"Expected object of device type cuda but got device type cpu"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ray-project/ray/issues/3265"</t>
+  </si>
+  <si>
+    <t>"no CUDA-capable device is detected"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cuml/issues/2143"</t>
+  </si>
+  <si>
+    <t>"[BUG] CuML CMake build attempts to generate gpu arch 35 and fails"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cudf/issues/4866"</t>
+  </si>
+  <si>
+    <t>"[BUG] Multidimensional indexing coerces null values to zero"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapiddev/CUDAfy.NET/issues/4"</t>
+  </si>
+  <si>
+    <t>"CuRAND error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/37149"</t>
+  </si>
+  <si>
+    <t>"Cuda profiler + DataParallel + manual profiling start = strange profiling overhead pattern"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/37100"</t>
+  </si>
+  <si>
+    <t>"is_cuda() internal assert failure"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/36378"</t>
+  </si>
+  <si>
+    <t>"CMake targets wrongly forward unknown options to NVCC (v1.5+)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/35020"</t>
+  </si>
+  <si>
+    <t>"`device_count()` returns 1 while `torch._C._cuda_getDeviceCount()` returns 2?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/extension-cpp/issues/57"</t>
+  </si>
+  <si>
+    <t>"CUDA compilation fails "</t>
+  </si>
+  <si>
+    <t>"https://github.com/pyinvoke/invoke/issues/717"</t>
+  </si>
+  <si>
+    <t>"set GPU CUDA environmental variable"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjreddie/darknet/issues/2103"</t>
+  </si>
+  <si>
+    <t>"CUDA Error: CUDA driver version is insufficient for CUDA runtime version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/monologg/R-BERT/issues/3"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mitsuba-renderer/enoki/issues/74"</t>
+  </si>
+  <si>
+    <t>"question about multi-core and multi GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/manu3193/DNLM-P/issues/5"</t>
+  </si>
+  <si>
+    <t>"Compilation successful but invalid address accessed by kernels"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/74"</t>
+  </si>
+  <si>
+    <t>"OpenCL IsNaNF not implemented"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/73"</t>
+  </si>
+  <si>
+    <t>"OpenCL local array compile error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/limbo018/DREAMPlace/issues/21"</t>
+  </si>
+  <si>
+    <t>"Floating point exception"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kubeflow/tf-operator/issues/165"</t>
+  </si>
+  <si>
+    <t>"Prevent scheduling deadlocks"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kentaroy47/BlazeFace_Person.pytorch/issues/3"</t>
+  </si>
+  <si>
+    <t>"multi-GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jczarnowski/DeepFactors/issues/2"</t>
+  </si>
+  <si>
+    <t>"cudaError code: out of memory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/helix-toolkit/helix-toolkit/issues/1343"</t>
+  </si>
+  <si>
+    <t>"Distributing computations over four high end GPU's"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuopenanalytics/remote-docker-plugin/issues/28"</t>
+  </si>
+  <si>
+    <t>"[BUG] gpus flag is used incorrectly"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuopenanalytics/remote-docker-plugin/issues/29"</t>
+  </si>
+  <si>
+    <t>"[BUG] Drive capabilities work differently with gpu flag"</t>
+  </si>
+  <si>
+    <t>"https://github.com/google/jax/issues/2721"</t>
+  </si>
+  <si>
+    <t>"A simple two-gpu program does not work."</t>
+  </si>
+  <si>
+    <t>"https://github.com/google/automl/issues/203"</t>
+  </si>
+  <si>
+    <t>"Gpu memory allocation."</t>
+  </si>
+  <si>
+    <t>"https://github.com/gfx-rs/wgpu/issues/554"</t>
+  </si>
+  <si>
+    <t>"Validate BufferCopyView and TextureCopyView"</t>
+  </si>
+  <si>
+    <t>"https://github.com/eth-cscs/COSMA/issues/23"</t>
+  </si>
+  <si>
+    <t>"Multi GPU support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/espressomd/espresso/issues/3688"</t>
+  </si>
+  <si>
+    <t>"Deprecated instructions in CUDA-generated assembly code"</t>
+  </si>
+  <si>
+    <t>"https://github.com/dusty-nv/jetson-inference/issues/557"</t>
+  </si>
+  <si>
+    <t>"CudaFromNumpy Bottleneck Performance Issues "</t>
+  </si>
+  <si>
+    <t>"https://github.com/dmlc/xgboost/issues/5592"</t>
+  </si>
+  <si>
+    <t>"Check failed: gpu_predictor_"</t>
+  </si>
+  <si>
+    <t>"https://github.com/denizyuret/Knet.jl/issues/548"</t>
+  </si>
+  <si>
+    <t>"Memory allocation and deallocation of temporary variables"</t>
+  </si>
+  <si>
+    <t>"https://github.com/deepmind/sonnet/issues/94"</t>
+  </si>
+  <si>
+    <t>"multi GPU batchsize problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/davisking/dlib/issues/2072"</t>
+  </si>
+  <si>
+    <t>"Shows WILL USE CUDA after compile. But returns false for dlib.DLIB_USE_CUDA"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3283"</t>
+  </si>
+  <si>
+    <t>"Concatenating arrays from different devices results in a CUDARuntimeError"</t>
+  </si>
+  <si>
+    <t>"https://github.com/compdyn/partmc/issues/141"</t>
+  </si>
+  <si>
+    <t>"GPU linear solver thread overlapping"</t>
+  </si>
+  <si>
+    <t>"https://github.com/carla-simulator/carla/issues/2689"</t>
+  </si>
+  <si>
+    <t>"Improve GPU utilization and ScenceCapture parallel computing"</t>
+  </si>
+  <si>
+    <t>"https://github.com/beltransen/velo2cam_gazebo/issues/9"</t>
+  </si>
+  <si>
+    <t>"GPU Acceleration"</t>
+  </si>
+  <si>
+    <t>"https://github.com/athena-team/athena/issues/136"</t>
+  </si>
+  <si>
+    <t>"more GPU error and one gpu error too"</t>
+  </si>
+  <si>
+    <t>"https://github.com/alaingalvan/opengl-seed-wasm/issues/1"</t>
+  </si>
+  <si>
+    <t>"compile error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ValveSoftware/Proton/issues/3765"</t>
+  </si>
+  <si>
+    <t>"Display issues and crashes with multiple GPUs."</t>
+  </si>
+  <si>
+    <t>"https://github.com/TurkuNLP/Turku-neural-parser-pipeline/issues/31"</t>
+  </si>
+  <si>
+    <t>"GPU version hangs infedefinitely"</t>
+  </si>
+  <si>
+    <t>"https://github.com/SciML/OrdinaryDiffEq.jl/issues/1103"</t>
+  </si>
+  <si>
+    <t>"GPU Image Fails Tests"</t>
+  </si>
+  <si>
+    <t>"https://github.com/RadeonOpenCompute/ROCm_Documentation/issues/76"</t>
+  </si>
+  <si>
+    <t>"enable HCC Profile Mode -kernel command ,Memory copy commands,Barrier  commands."</t>
+  </si>
+  <si>
+    <t>"https://github.com/ROCmSoftwarePlatform/rocFFT/issues/295"</t>
+  </si>
+  <si>
+    <t>"Undefined __global__ function. on rocFFT complex 2d FFT example\\n"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ROCmSoftwarePlatform/AMDMIGraphX/issues/501"</t>
+  </si>
+  <si>
+    <t>"PR#479 caused different results on CPU and GPU targets"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ROCmSoftwarePlatform/AMDMIGraphX/issues/484"</t>
+  </si>
+  <si>
+    <t>"Models have different CPU/GPU results"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ROCm-Developer-Tools/HIP/issues/1997"</t>
+  </si>
+  <si>
+    <t>"Memory copy problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/1344"</t>
+  </si>
+  <si>
+    <t>"Running multiGPU test(): one GPU overflows"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PointCloudLibrary/pcl/issues/3951"</t>
+  </si>
+  <si>
+    <t>"[gpu][windows] invalid device function gpu/octree/src/cuda/octree_host.cu:64"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PaddlePaddle/Paddle/issues/21277"</t>
+  </si>
+  <si>
+    <t>"NCCL WARN Error : mixing different streams within a group call is not supported"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/triton-inference-server/issues/1274"</t>
+  </si>
+  <si>
+    <t>"Question: Will Stream endpoint increase GPU utilization?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/332"</t>
+  </si>
+  <si>
+    <t>"How to set NCCL_P2P_LEVEL to  NVL"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/328"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: NCCL error in ProcessGroupNCCL.cpp:290, unhandled system error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/315"</t>
+  </si>
+  <si>
+    <t>"Can two AllReduce operations run concurrently using different communicators and different streams?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/VideoProcessingFramework/issues/26"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/VideoProcessingFramework/issues/10"</t>
+  </si>
+  <si>
+    <t>"cuda error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/DALI/issues/1867"</t>
+  </si>
+  <si>
+    <t>"mulit-gpu problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/DALI/issues/1866"</t>
+  </si>
+  <si>
+    <t>"multi-machine multi-gpu test"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/KernelAbstractions.jl/issues/89"</t>
+  </si>
+  <si>
+    <t>"LLVM error: Cannot select: 0xca6fd20: f64 = fpow 0x93a9e90"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/GPUCompiler.jl/issues/21"</t>
+  </si>
+  <si>
+    <t>"Threading-related segfault"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/687"</t>
+  </si>
+  <si>
+    <t>"Indexing CuArrays with Empty Ranges Errors"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/685"</t>
+  </si>
+  <si>
+    <t>"Deadlock during memory free"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDAnative.jl/issues/620"</t>
+  </si>
+  <si>
+    <t>"Can't access GPUs, get \"ERROR: CUDA error: invalid device context (code 201, ERROR_INVALID_CONTEXT)\""</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CUDAdrv.jl/issues/235"</t>
+  </si>
+  <si>
+    <t>"Error while freeing "</t>
+  </si>
+  <si>
+    <t>"https://github.com/GPUOpen-Tools/CodeXL/issues/257"</t>
+  </si>
+  <si>
+    <t>"no devices available when profiling"</t>
+  </si>
+  <si>
+    <t>"https://github.com/FoldingAtHome/fah-issues/issues/1410"</t>
+  </si>
+  <si>
+    <t>"Cannot increase GPU threads without getting a new WU assignment."</t>
+  </si>
+  <si>
+    <t>"https://github.com/FoldingAtHome/fah-issues/issues/1280"</t>
+  </si>
+  <si>
+    <t>"NaCl client does not exclude assignments to high-threadcount systems."</t>
+  </si>
+  <si>
+    <t>"https://github.com/FLAMEGPU/FLAMEGPU2_dev/issues/245"</t>
+  </si>
+  <si>
+    <t>"Ensemble of multiple concurrent (or sequential) simualtions"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Exawind/nalu-wind/issues/545"</t>
+  </si>
+  <si>
+    <t>"STK SIMD broken on GPU build "</t>
+  </si>
+  <si>
+    <t>"https://github.com/DualSPHysics/DualSPHysics/issues/47"</t>
+  </si>
+  <si>
+    <t>"cuda compilation error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/BVLC/caffe/issues/6941"</t>
+  </si>
+  <si>
+    <t>"Call CUDA failed on another computer"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AlexeyAB/darknet/issues/5301"</t>
+  </si>
+  <si>
+    <t>"CUDA error occurs when training with multiple GPUs."</t>
+  </si>
+  <si>
+    <t>"https://github.com/zju3dv/clean-pvnet/issues/50"</t>
+  </si>
+  <si>
+    <t>"About CUDA path "</t>
+  </si>
+  <si>
+    <t>"https://github.com/xmrig/xmrig/issues/1622"</t>
+  </si>
+  <si>
+    <t>"ocl  error CL_INVALID_HOST_PTR when calling clCreateBuffer with ...."</t>
+  </si>
+  <si>
+    <t>"https://github.com/wkcn/LookaheadOptimizer-mx/issues/4"</t>
+  </si>
+  <si>
+    <t>"multi-gpu problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/videovillage/Screen-Issues/issues/29"</t>
+  </si>
+  <si>
+    <t>"Discrete GPU switching"</t>
+  </si>
+  <si>
+    <t>"https://github.com/trilinos/Trilinos/issues/917"</t>
+  </si>
+  <si>
+    <t>"cudaErrorIllegalAddress when running with Trilinos+Belos+MueLu on GPUs "</t>
+  </si>
+  <si>
+    <t>"https://github.com/thrust/thrust/issues/1075"</t>
+  </si>
+  <si>
+    <t>"Compilation of copy.cu fails when compiling Thrust with OpenMP"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/38053"</t>
+  </si>
+  <si>
+    <t>"high thread count"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/37693"</t>
+  </si>
+  <si>
+    <t>"CUDA_ERROR_LAUNCH_TIMEOUT when using NCCL with MultiWorkerMirroredStrategy on multi-node systems"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/models/issues/8346"</t>
+  </si>
+  <si>
+    <t>"GPU acceleration only after first execution"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/models/issues/6770"</t>
+  </si>
+  <si>
+    <t>"kernel died after some code "</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/models/issues/6469"</t>
+  </si>
+  <si>
+    <t>"Multi-GPU Error with Deeplabv3 updated version"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/gan/issues/10"</t>
+  </si>
+  <si>
+    <t>"Multiple GPUs Implementation for data/model parallelism"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/federated/issues/816"</t>
+  </si>
+  <si>
+    <t>"Error while using GPU based execution"</t>
+  </si>
+  <si>
+    <t>"https://github.com/stereolabs/zed-ros-wrapper/issues/537"</t>
+  </si>
+  <si>
+    <t>"Significance of `CuCtxGetDeviceId` inside ZEDRosWrapperNodelet unclear "</t>
+  </si>
+  <si>
+    <t>"https://github.com/stereolabs/zed-openpose/issues/5"</t>
+  </si>
+  <si>
+    <t>"cuda error [29]: driver shutting down"</t>
+  </si>
+  <si>
+    <t>"https://github.com/stanfordnlp/stanza/issues/222"</t>
+  </si>
+  <si>
+    <t>"[QUESTION] CUDA error and segmentation fault "</t>
+  </si>
+  <si>
+    <t>"https://github.com/sidhartha-roy/2D-views-to-3D-Objects/issues/1"</t>
+  </si>
+  <si>
+    <t>"GPU requirement with streamlit"</t>
+  </si>
+  <si>
+    <t>"https://github.com/sbailey/gpu_specter/issues/9"</t>
+  </si>
+  <si>
+    <t>"gpu - pin memory and the end of patches/bundles"</t>
+  </si>
+  <si>
+    <t>"https://github.com/sbailey/gpu_specter/issues/16"</t>
+  </si>
+  <si>
+    <t>"gpu - profile and record results"</t>
+  </si>
+  <si>
+    <t>"https://github.com/runelite/runelite/issues/11068"</t>
+  </si>
+  <si>
+    <t>"GPU Bug"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ray-project/ray/issues/7536"</t>
+  </si>
+  <si>
+    <t>"[tune][autoscaler] Why is the multi-GPU tuning overall slower than the single-GPU?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cudf/issues/4757"</t>
+  </si>
+  <si>
+    <t>"[BUG] Call to cuMemcpyHtoD results in CUDA_ERROR_INVALID_VALUE"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/35138"</t>
+  </si>
+  <si>
+    <t>"CUDA unexpected launch failure for complex128 inputs being cast to complex64 for certain unary ops"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjrambo/VINS-Fusion-gpu/issues/16"</t>
+  </si>
+  <si>
+    <t>"double free or corruption (out)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/opencv/issues/16765"</t>
+  </si>
+  <si>
+    <t>" CUDA driver version is insufficient for CUDA runtime version in function 'setDevice'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/opencv/dldt/issues/438"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ogamespec/dolwin/issues/2"</t>
+  </si>
+  <si>
+    <t>"Multithreading"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mks0601/TF-SimpleHumanPose/issues/44"</t>
+  </si>
+  <si>
+    <t>" __cudaRegisterFatBinaryEnd"</t>
+  </si>
+  <si>
+    <t>"https://github.com/migueldeicaza/TensorFlowSharp/issues/478"</t>
+  </si>
+  <si>
+    <t>"Creat Gpu TFTensor from Cuda array on GPU to avoid the deviceTohost copy."</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/onnxruntime/issues/3263"</t>
+  </si>
+  <si>
+    <t>"CPU and GPU different behaviour"</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/DeepSpeed/issues/155"</t>
+  </si>
+  <si>
+    <t>"GPU experiments - e.g. GTX 2080Ti"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mantou132/Spotify-Lyrics/issues/13"</t>
+  </si>
+  <si>
+    <t>"Memory leak issue in GPU process"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/76"</t>
+  </si>
+  <si>
+    <t>"Illegal memory access during Float3 subtraction"</t>
+  </si>
+  <si>
+    <t>"https://github.com/m4rs-mt/ILGPU/issues/75"</t>
+  </si>
+  <si>
+    <t>"Kernel awareness of hardware thread index"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kengz/SLM-Lab/issues/450"</t>
+  </si>
+  <si>
+    <t>"use 'shared'  with GPU and mupltiprocessing"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jakubito/dolores/issues/3"</t>
+  </si>
+  <si>
+    <t>"Do matrix computations on the GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/inducer/pycuda/issues/229"</t>
+  </si>
+  <si>
+    <t>"[Nvidia Jetson TX2] LogicError: cuMemHostRegister failed: operation not supported"</t>
+  </si>
+  <si>
+    <t>"https://github.com/huggingface/transformers/issues/3528"</t>
+  </si>
+  <si>
+    <t>"Unexpected ZeroDivisionError when calling model.prune_heads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuweb/gpuweb/issues/624"</t>
+  </si>
+  <si>
+    <t>"Asynchronous shader reflection information"</t>
+  </si>
+  <si>
+    <t>"https://github.com/flairNLP/flair/issues/1482"</t>
+  </si>
+  <si>
+    <t>"free gpu cache to do prediction for multiple time"</t>
+  </si>
+  <si>
+    <t>"https://github.com/cupy/cupy/issues/3202"</t>
+  </si>
+  <si>
+    <t>"Convert CUDA Vectors or Device ptr to cupy arrays?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/clara-genomics/ClaraGenomicsAnalysis/issues/304"</t>
+  </si>
+  <si>
+    <t>"[cudamapper] segfault when running with multi GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/bytedeco/javacpp-presets/issues/857"</t>
+  </si>
+  <si>
+    <t>"Nvidia CUDA \"scale_npp\" filter"</t>
+  </si>
+  <si>
+    <t>"https://github.com/bytedeco/javacpp-presets/issues/852"</t>
+  </si>
+  <si>
+    <t>"Multithreaded loading caffe model HDF5 error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/biplobsd/Google-Colab-CloudTorrent/issues/11"</t>
+  </si>
+  <si>
+    <t>"Cannot use the GPU hardware accelerator"</t>
+  </si>
+  <si>
+    <t>"https://github.com/azavea/raster-vision/issues/777"</t>
+  </si>
+  <si>
+    <t>"Many GPU speed problemMany GPU speed problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/athena-team/athena/issues/77"</t>
+  </si>
+  <si>
+    <t>"Mix-precisioned training"</t>
+  </si>
+  <si>
+    <t>"https://github.com/apache/incubator-mxnet/issues/17888"</t>
+  </si>
+  <si>
+    <t>"cuda error with SequenceLast."</t>
+  </si>
+  <si>
+    <t>"https://github.com/apache/incubator-mxnet/issues/17837"</t>
+  </si>
+  <si>
+    <t>"gpu error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/apache/incubator-mxnet/issues/17761"</t>
+  </si>
+  <si>
+    <t>"cmake stuck in infinite loop at configuration if nvcc is not found"</t>
+  </si>
+  <si>
+    <t>"https://github.com/SeanNaren/deepspeech.pytorch/issues/315"</t>
+  </si>
+  <si>
+    <t>"Loss NaN for Multi-GPU Training (GeForce GTX-1080 Ti)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/RadeonOpenCompute/ROCm/issues/1040"</t>
+  </si>
+  <si>
+    <t>"clinfo returns clGetDeviceIDs(-1) on ROCm 3.1"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PyTorchLightning/pytorch-lightning/issues/1316"</t>
+  </si>
+  <si>
+    <t>"Implement GPU Prefetching of data."</t>
+  </si>
+  <si>
+    <t>"https://github.com/PointCloudLibrary/pcl/issues/3729"</t>
+  </si>
+  <si>
+    <t>"__CUDACC_VER__ is no longer supported"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/tensorrt-inference-server/issues/1106"</t>
+  </si>
+  <si>
+    <t>"Concurrency problem due to allocation of output buffers on device"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/apex/issues/754"</t>
+  </si>
+  <si>
+    <t>"Solution for CUDA Installation Issues"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/TensorRT/issues/421"</t>
+  </si>
+  <si>
+    <t>"../rtSafe/cuda/genericReformat.cu (1262) - Cuda Error in executeMemcpy: 11"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/Megatron-LM/issues/27"</t>
+  </si>
+  <si>
+    <t>"Calculate the TFLOPS performance with elapsed time per iteration"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/661"</t>
+  </si>
+  <si>
+    <t>"sum!(y::CuVector, x::CuMatrix) throws InvalidIRError error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/647"</t>
+  </si>
+  <si>
+    <t>"Threading-related assertion failure in split allocator"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaDynamics/RecurrenceAnalysis.jl/issues/76"</t>
+  </si>
+  <si>
+    <t>"Performance of computation of recurrence matrices"</t>
+  </si>
+  <si>
+    <t>"https://github.com/IntelAI/unet/issues/15"</t>
+  </si>
+  <si>
+    <t>"use GPU issue"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ComputationalRadiationPhysics/picongpu/issues/3203"</t>
+  </si>
+  <si>
+    <t>"cudaErrorIllegalAccess"</t>
+  </si>
+  <si>
+    <t>"https://github.com/CMU-Perceptual-Computing-Lab/openpose/issues/1499"</t>
+  </si>
+  <si>
+    <t>"c++ error  while building NVCC"</t>
+  </si>
+  <si>
+    <t>"https://github.com/CEED/libCEED/issues/374"</t>
+  </si>
+  <si>
+    <t>"CUDA Gen Multiple Output Mode Error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/1adrianb/face-alignment/issues/166"</t>
+  </si>
+  <si>
+    <t>"CUDA error Out of memory "</t>
+  </si>
+  <si>
+    <t>"https://github.com/400lbhacker/Windows-64x-Caffe-Framework-Deepdream-installer/issues/1"</t>
+  </si>
+  <si>
+    <t>"gpu enabled possibilities"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zhechen/PLARD/issues/2"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuta-hi/pytorch_similarity/issues/1"</t>
+  </si>
+  <si>
+    <t>"ERROR WHILE RUNNING ON GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuanming-hu/difftaichi/issues/18"</t>
+  </si>
+  <si>
+    <t>"CUDA extremely slow on example where CPU is fast"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xteve-project/xTeVe/issues/79"</t>
+  </si>
+  <si>
+    <t>"No Stream Buffer Update"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xenia-project/xenia/issues/1559"</t>
+  </si>
+  <si>
+    <t>"GPU memory copy isn't invalidated if the same physical addresses are used through different heaps"</t>
+  </si>
+  <si>
+    <t>"https://github.com/webmachinelearning/webnn/issues/26"</t>
+  </si>
+  <si>
+    <t>"Float16 type support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/votca/xtp/issues/391"</t>
+  </si>
+  <si>
+    <t>"Cuda stream is not synchronize"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/36959"</t>
+  </si>
+  <si>
+    <t>"TF-TRT execution context management for multiple threads / streams"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/models/issues/4774"</t>
+  </si>
+  <si>
+    <t>"Estimators for training: Multi GPU Support seems missing"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/426"</t>
+  </si>
+  <si>
+    <t>"Double Precision sin/cos with CUDA fail"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rthadur/recaptcha/issues/306"</t>
+  </si>
+  <si>
+    <t>"Multi GPU Model is not working"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cuml/issues/1735"</t>
+  </si>
+  <si>
+    <t>"[BUG] Kmeans C++ to accept and use multiple streams"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cuml/issues/1685"</t>
+  </si>
+  <si>
+    <t>"[BUG] knn.predict() results in CudaRuntimeError: Error! cudaErrorIllegalAddress reason='an illegal memory access was encountered' extraMsg='Stream sync'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/rapidsai/cuml/issues/1085"</t>
+  </si>
+  <si>
+    <t>"[FEA] Generally handling CUDA array-like objects"</t>
+  </si>
+  <si>
+    <t>"https://github.com/quinngroup/dr1dl-Dask/issues/2"</t>
+  </si>
+  <si>
+    <t>"Implement CuPy/Cuda"</t>
+  </si>
+  <si>
+    <t>"https://github.com/qixuxiang/orb-slam2_with_semantic_label/issues/21"</t>
+  </si>
+  <si>
+    <t>"Floating point exception (core dumped)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/33909"</t>
+  </si>
+  <si>
+    <t>"Multi-stream multi-device synchronization in backward still broken"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/33421"</t>
+  </si>
+  <si>
+    <t>"Matrix dot product returns wrong value on some random elements"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/2332"</t>
+  </si>
+  <si>
+    <t>"Unhandled CUDA Error (1)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pjreddie/darknet/issues/2053"</t>
+  </si>
+  <si>
+    <t>"Multi GPUS bug code inquiry"</t>
+  </si>
+  <si>
+    <t>"https://github.com/numba/numba/issues/4833"</t>
+  </si>
+  <si>
+    <t>"CUDA malloc. Fatal Python error: Aborted"</t>
+  </si>
+  <si>
+    <t>"https://github.com/milvus-io/milvus/issues/1298"</t>
+  </si>
+  <si>
+    <t>"Unittest failed when on CPU2GPU case "</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/vscode-python/issues/10013"</t>
+  </si>
+  <si>
+    <t>"Could not load dynamic library 'cudart64_100.dll'"</t>
+  </si>
+  <si>
+    <t>"https://github.com/microsoft/computervision-recipes/issues/514"</t>
+  </si>
+  <si>
+    <t>"[BUG] For GPU tests, we should reset the GPU memory to prevent memory leaks"</t>
+  </si>
+  <si>
+    <t>"https://github.com/mattgodbolt/compiler-explorer/issues/1856"</t>
+  </si>
+  <si>
+    <t>"[REQUEST] Compile CUDA programs all the way"</t>
+  </si>
+  <si>
+    <t>"https://github.com/matterport/Mask_RCNN/issues/1993"</t>
+  </si>
+  <si>
+    <t>"Different result in different GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/majkinetor/au-packages/issues/144"</t>
+  </si>
+  <si>
+    <t>"Multi thread (with multi GPU)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/keras-team/keras/issues/13807"</t>
+  </si>
+  <si>
+    <t>"Dtype 'float16' is not a universal type on cntk backend, but no warning or reminder in document"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jwyang/faster-rcnn.pytorch/issues/764"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jhjacobsen/pytorch-i-revnet/issues/20"</t>
+  </si>
+  <si>
+    <t>"https://github.com/jellyfin/jellyfin/issues/2395"</t>
+  </si>
+  <si>
+    <t>"Nvidia Nvenc hardware accelleration on docker container give PlaybackErrorNoCompatibleStream"</t>
+  </si>
+  <si>
+    <t>"https://github.com/huguyuehuhu/HCN-pytorch/issues/26"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: cuda runtime error (710) :"</t>
+  </si>
+  <si>
+    <t>"https://github.com/greshake/i3status-rust/issues/564"</t>
+  </si>
+  <si>
+    <t>"NVIDIA GPU Block - Fixed Utilization Width"</t>
+  </si>
+  <si>
+    <t>"https://github.com/greshake/i3status-rust/issues/542"</t>
+  </si>
+  <si>
+    <t>"Intel GPU monitoring block?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gpuweb/gpuweb/issues/579"</t>
+  </si>
+  <si>
+    <t>"[wgsl] continuing block"</t>
+  </si>
+  <si>
+    <t>"https://github.com/filecoin-project/lotus/issues/1200"</t>
+  </si>
+  <si>
+    <t>"GPU FFT error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/937"</t>
+  </si>
+  <si>
+    <t>"Multi-GPU training output"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/840"</t>
+  </si>
+  <si>
+    <t>"Deadlock when multiple gpus are enabled"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/838"</t>
+  </si>
+  <si>
+    <t>"FloatingPointError: Loss became infinite or NaN at iteration=2137!"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ethereum-mining/ethminer/issues/1959"</t>
+  </si>
+  <si>
+    <t>"CMake Error at ethash-cuda_generated_ethash_cuda_miner_kernel.cu.o.cmake:207"</t>
+  </si>
+  <si>
+    <t>"https://github.com/eclipse/deeplearning4j/issues/8681"</t>
+  </si>
+  <si>
+    <t>"DL4J: CUDA in-place parallel inference - \"Affinity for thread [X] wasn't defined yet\""</t>
+  </si>
+  <si>
+    <t>"https://github.com/dmlc/dgl/issues/1241"</t>
+  </si>
+  <si>
+    <t>"G.to(torch.device('cuda:0')) return nothing"</t>
+  </si>
+  <si>
+    <t>"https://github.com/davisking/dlib/issues/1970"</t>
+  </si>
+  <si>
+    <t>"dtest fails: cudaOccupancyMaxPotentialBlockSize error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/david8862/keras-YOLOv3-model-set/issues/16"</t>
+  </si>
+  <si>
+    <t>"GPU usage and batch size"</t>
+  </si>
+  <si>
+    <t>"https://github.com/comet-ml/issue-tracking/issues/332"</t>
+  </si>
+  <si>
+    <t>"comet optimize with cuda_device"</t>
+  </si>
+  <si>
+    <t>"https://github.com/chrmarti/testissues/issues/1564"</t>
+  </si>
+  <si>
+    <t>"Create folder GUI bug"</t>
+  </si>
+  <si>
+    <t>"https://github.com/chineseocr/darknet-ocr/issues/62"</t>
+  </si>
+  <si>
+    <t>"å¹¶è¡ŒæŠ¥é”™ï¼š\"CUDA runtime error: invalid device pointer\""</t>
+  </si>
+  <si>
+    <t>"https://github.com/brucefan1983/GPUMD/issues/46"</t>
+  </si>
+  <si>
+    <t>"BUG: CUDA (cudaMemset) error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/apache/incubator-mxnet/issues/17612"</t>
+  </si>
+  <si>
+    <t>"Gluon block thread safety bug"</t>
+  </si>
+  <si>
+    <t>"https://github.com/aejsmith/vkdevicechooser/issues/4"</t>
+  </si>
+  <si>
+    <t>"Switch between dGpu and iGpu?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/advaitsave/Multiclass-Semantic-Segmentation-CamVid/issues/4"</t>
+  </si>
+  <si>
+    <t>"batch_shape causes multi gpu to fail"</t>
+  </si>
+  <si>
+    <t>"https://github.com/YuvalNirkin/face_segmentation/issues/20"</t>
+  </si>
+  <si>
+    <t>"CUDA CPU or GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/TDAmeritrade/stumpy/issues/128"</t>
+  </si>
+  <si>
+    <t>"Handling NaN and inf Values for GPU_STUMP"</t>
+  </si>
+  <si>
+    <t>"https://github.com/StanfordLegion/legion/issues/713"</t>
+  </si>
+  <si>
+    <t>"Regent: CUDA errors are not checked during kernel launches"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PointCloudLibrary/pcl/issues/3662"</t>
+  </si>
+  <si>
+    <t>"[DOUBT] Differenc between GPU and CUDA namespaces"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PointCloudLibrary/pcl/issues/3650"</t>
+  </si>
+  <si>
+    <t>"PCL CUDA build issues"</t>
+  </si>
+  <si>
+    <t>"https://github.com/PaddlePaddle/Paddle/issues/22467"</t>
+  </si>
+  <si>
+    <t>"PaddleCheckError: cudaGetDeviceCount failed in paddle::platform::GetCUDADeviceCountImpl, error code : 3"</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenNMT/OpenNMT-py/issues/1724"</t>
+  </si>
+  <si>
+    <t>"fp16 zero division error on multiple GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/OpenJij/OpenJij/issues/101"</t>
+  </si>
+  <si>
+    <t>"double-precison on GPU interface"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nccl/issues/295"</t>
+  </si>
+  <si>
+    <t>"NCCL WARN Cuda failure 'out of memory' and timeout"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/apex/issues/715"</t>
+  </si>
+  <si>
+    <t>"problems with fp16 on multi-gpu training"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NLESC-JCER/EigenCuda/issues/22"</t>
+  </si>
+  <si>
+    <t>"Synchronize stream when copying the matrix back"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Leanny/SeedSearcher/issues/14"</t>
+  </si>
+  <si>
+    <t>"Crash when using CUDA."</t>
+  </si>
+  <si>
+    <t>"https://github.com/LaurentMazare/tch-rs/issues/153"</t>
+  </si>
+  <si>
+    <t>"Multi GPU initialization error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/601"</t>
+  </si>
+  <si>
+    <t>"`import CuArrays` always fails with CUDA 10.2.89 (but works fine with CUDA 10.0.130 and 10.1.105)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/590"</t>
+  </si>
+  <si>
+    <t>"Linear indexing into arrays with two or more dimensions throws an obscure error during gradient calculation with Zygote"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/CuArrays.jl/issues/589"</t>
+  </si>
+  <si>
+    <t>"Make CURAND seeding more consistent with Base"</t>
+  </si>
+  <si>
+    <t>"https://github.com/FLAMEGPU/FLAMEGPU2_dev/issues/189"</t>
+  </si>
+  <si>
+    <t>"Concurrency within Layers"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ContinuumIO/anaconda-issues/issues/11628"</t>
+  </si>
+  <si>
+    <t>"cuFFT fails when using GPU in tensorflow 2.1(linux)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ComputationalRadiationPhysics/picongpu/issues/3174"</t>
+  </si>
+  <si>
+    <t>"cupla_cuda_async error while building picongpu on Nvidia"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ComputationalRadiationPhysics/alpaka/issues/911"</t>
+  </si>
+  <si>
+    <t>"Slow memory copy"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ARM-software/armnn/issues/340"</t>
+  </si>
+  <si>
+    <t>"Running two models on the GpuAcc"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ANR-COMPASS/shesha/issues/12"</t>
+  </si>
+  <si>
+    <t>"cudaErrorInvalidConfiguration using a Tesla K40"</t>
+  </si>
+  <si>
+    <t>"https://github.com/AMReX-Codes/amrex/issues/720"</t>
+  </si>
+  <si>
+    <t>"Deallocating Gpu::ManagedVector"</t>
+  </si>
+  <si>
+    <t>"https://github.com/0xProject/OpenZKP/issues/574"</t>
+  </si>
+  <si>
+    <t>"WebGPU Acceleration"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zzh8829/yolov3-tf2/issues/159"</t>
+  </si>
+  <si>
+    <t>"Multiple GPU results in error.  Resolved."</t>
+  </si>
+  <si>
+    <t>"https://github.com/zzh8829/yolov3-tf2/issues/127"</t>
+  </si>
+  <si>
+    <t>"multi-gpu training"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zju3dv/pvnet/issues/118"</t>
+  </si>
+  <si>
+    <t>"# Cuda Problem in Docker# ImportError: libcudart.so.10.0: cannot open shared object file: No such file or directory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zhreshold/decord/issues/16"</t>
+  </si>
+  <si>
+    <t>"CUDAError: cuvidCreateVideoParser"</t>
+  </si>
+  <si>
+    <t>"https://github.com/zer011b/fdtd3d/issues/139"</t>
+  </si>
+  <si>
+    <t>"Questions in parallel computing"</t>
+  </si>
+  <si>
+    <t>"https://github.com/yuehhua/GeometricFlux.jl/issues/16"</t>
+  </si>
+  <si>
+    <t>"GPU performance of scatter functions"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ycm-core/YouCompleteMe/issues/3452"</t>
+  </si>
+  <si>
+    <t>"Diagnostic errors with cuda"</t>
+  </si>
+  <si>
+    <t>"https://github.com/xmengli999/H-DenseUNet/issues/64"</t>
+  </si>
+  <si>
+    <t>"multi GPU problem"</t>
+  </si>
+  <si>
+    <t>"https://github.com/willard-yuan/awesome-cbir-papers/issues/9"</t>
+  </si>
+  <si>
+    <t>"some new papers and method suggest to add"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tianrengao/SqueezeWave/issues/3"</t>
+  </si>
+  <si>
+    <t>"RuntimeError: expected type CUDAFloatType but got CUDAHalfType"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tianrengao/SqueezeWave/issues/2"</t>
+  </si>
+  <si>
+    <t>"GPU Conversion"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/35563"</t>
+  </si>
+  <si>
+    <t>"copy_to_device + prefetch not working"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/tensorflow/issues/34008"</t>
+  </si>
+  <si>
+    <t>"Why computation time increases proportionally when using more GPUs (mirror strategy)?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/minigo/issues/957"</t>
+  </si>
+  <si>
+    <t>"Parallelism and concurrency overview"</t>
+  </si>
+  <si>
+    <t>"https://github.com/tensorflow/benchmarks/issues/400"</t>
+  </si>
+  <si>
+    <t>"Synchronous vs Asynchronous training on a single machine"</t>
+  </si>
+  <si>
+    <t>"https://github.com/taichi-dev/taichi/issues/406"</t>
+  </si>
+  <si>
+    <t>"Reduce GPU memory alloc requests"</t>
+  </si>
+  <si>
+    <t>"https://github.com/stan-dev/math/issues/1453"</t>
+  </si>
+  <si>
+    <t>"MathMixMatFun.add and MathMixMatFun.subtract tests seem to fail randomly?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/redcamel/RedGPU/issues/220"</t>
+  </si>
+  <si>
+    <t>"GPGPU - GPUComputePipeline ë² ì´ìŠ¤ íŒŒí‹°í´ì—°êµ¬"</t>
+  </si>
+  <si>
+    <t>"https://github.com/pytorch/pytorch/issues/32081"</t>
+  </si>
+  <si>
+    <t>"Occassionally get illegal memory access in Cuda copy"</t>
+  </si>
+  <si>
+    <t>"https://github.com/poodarchu/Det3D/issues/36"</t>
+  </si>
+  <si>
+    <t>"multi-GPU training error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/openmm/openmm/issues/2533"</t>
+  </si>
+  <si>
+    <t>"Segmentation fault on OpenCL when using multiple GPUs"</t>
+  </si>
+  <si>
+    <t>"https://github.com/numba/numba/issues/5130"</t>
+  </si>
+  <si>
+    <t>"CUDA device to host transfer with a stream synchronizes with device"</t>
+  </si>
+  <si>
+    <t>"https://github.com/numba/numba/issues/5017"</t>
+  </si>
+  <si>
+    <t>"`cuda.to_device()` cannot copy zero-element data"</t>
+  </si>
+  <si>
+    <t>"https://github.com/madhawav/YOLO3-4-Py/issues/109"</t>
+  </si>
+  <si>
+    <t>"CUDA Error: invalid device symbol"</t>
+  </si>
+  <si>
+    <t>"https://github.com/lrjconan/GRAN/issues/7"</t>
+  </si>
+  <si>
+    <t>"Division By Zero "</t>
+  </si>
+  <si>
+    <t>"https://github.com/linfranksong/Input_TI/issues/1"</t>
+  </si>
+  <si>
+    <t>"GPU based TI calculations"</t>
+  </si>
+  <si>
+    <t>"https://github.com/libretro/flycast/issues/766"</t>
+  </si>
+  <si>
+    <t>"Threaded rendering  halves FPS"</t>
+  </si>
+  <si>
+    <t>"https://github.com/larq/larq/issues/388"</t>
+  </si>
+  <si>
+    <t>"Flip-ratio does not work on Multi GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/kornia/kornia/issues/130"</t>
+  </si>
+  <si>
+    <t>"[BUG] Using Multi GPU support"</t>
+  </si>
+  <si>
+    <t>"https://github.com/iperov/DeepFaceLab/issues/595"</t>
+  </si>
+  <si>
+    <t>"RuntimeWarning: divide by zero encountered in float_scalars"</t>
+  </si>
+  <si>
+    <t>"https://github.com/iperov/DeepFaceLab/issues/553"</t>
+  </si>
+  <si>
+    <t>"Random GPU Sync Error"</t>
+  </si>
+  <si>
+    <t>"https://github.com/howardyclo/pytorch-seq2seq-example/issues/6"</t>
+  </si>
+  <si>
+    <t>"Training the seq2seq model with multi-GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/google/jax/issues/2012"</t>
+  </si>
+  <si>
+    <t>"Using non-nvidia GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/gmarkall/nbep-7/issues/5"</t>
+  </si>
+  <si>
+    <t>"CuPy pool allocator"</t>
+  </si>
+  <si>
+    <t>"https://github.com/getkeops/keops/issues/39"</t>
+  </si>
+  <si>
+    <t>"Issue when discrepancy between available CUDA device at build time / runtime"</t>
+  </si>
+  <si>
+    <t>"https://github.com/geodynamics/specfem3d/issues/1357"</t>
+  </si>
+  <si>
+    <t>"https://github.com/filecoin-project/lotus/issues/927"</t>
+  </si>
+  <si>
+    <t>"Synchronization failure"</t>
+  </si>
+  <si>
+    <t>"https://github.com/filecoin-project/lotus/issues/699"</t>
+  </si>
+  <si>
+    <t>"GPU Multiexp failed"</t>
+  </si>
+  <si>
+    <t>"https://github.com/filecoin-project/lotus/issues/1027"</t>
+  </si>
+  <si>
+    <t>"thread '&lt;unnamed&gt;' panicked at 'GPU FFT failed!: GPUError"</t>
+  </si>
+  <si>
+    <t>"https://github.com/facebookresearch/detectron2/issues/688"</t>
+  </si>
+  <si>
+    <t>"EVALUATION COST ON BOTH CPU AND GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/elda27/pydrr/issues/2"</t>
+  </si>
+  <si>
+    <t>"nvcc "</t>
+  </si>
+  <si>
+    <t>"https://github.com/deepchem/deepchem/issues/251"</t>
+  </si>
+  <si>
+    <t>"Multi-GPU parallelization?"</t>
+  </si>
+  <si>
+    <t>"https://github.com/clara-genomics/ClaraGenomicsAnalysis/issues/286"</t>
+  </si>
+  <si>
+    <t>"[cudamapper] gaps between GPU kernels in cudamapper"</t>
+  </si>
+  <si>
+    <t>"https://github.com/arsenetar/dupeguru/issues/622"</t>
+  </si>
+  <si>
+    <t>"GPU acceleration for chunk matching process"</t>
+  </si>
+  <si>
+    <t>"https://github.com/alphacep/kaldi-websocket-python/issues/28"</t>
+  </si>
+  <si>
+    <t>"Error when compiled to run on GPU"</t>
+  </si>
+  <si>
+    <t>"https://github.com/aicenter/ConditionalDists.jl/issues/11"</t>
+  </si>
+  <si>
+    <t>"GPU conversion"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ValveSoftware/Proton/issues/3417"</t>
+  </si>
+  <si>
+    <t>"Counter-Strike Nexon: Studio (273110)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/TDAmeritrade/stumpy/issues/117"</t>
+  </si>
+  <si>
+    <t>"Handling NaN and inf Values for N-D Matrix Profile Algorithms"</t>
+  </si>
+  <si>
+    <t>"https://github.com/StanfordVL/MinkowskiEngine/issues/11"</t>
+  </si>
+  <si>
+    <t>"Multi-GPU training performance issue"</t>
+  </si>
+  <si>
+    <t>"https://github.com/Ryujinx/Ryujinx/issues/855"</t>
+  </si>
+  <si>
+    <t>"GPU v2(angel)Disck Shaders Cache and GPU Asynchronous SMO "</t>
+  </si>
+  <si>
+    <t>"https://github.com/RadeonOpenCompute/rfcs/issues/4"</t>
+  </si>
+  <si>
+    <t>"OpenCL problem with copying memory between host and device from multiple threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/RadeonOpenCompute/ROCm/issues/990"</t>
+  </si>
+  <si>
+    <t>"Unstable memory copies between host and device from multiple threads (ROCM OpenCL)"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ROCm-Developer-Tools/HIP/issues/1815"</t>
+  </si>
+  <si>
+    <t>"hipMemcpy3D(async) d2d &gt;37x speedup possible"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVlabs/few-shot-vid2vid/issues/10"</t>
+  </si>
+  <si>
+    <t>"multi gpu training hangs in python threading"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/tensorrt-inference-server/issues/1001"</t>
+  </si>
+  <si>
+    <t>"CPU memory grows up while using CUDA shared memory"</t>
+  </si>
+  <si>
+    <t>"https://github.com/NVIDIA/nvidia-docker/issues/1172"</t>
+  </si>
+  <si>
+    <t>"use NVLINK across containers"</t>
+  </si>
+  <si>
+    <t>"https://github.com/JuliaGPU/GPUArrays.jl/issues/133"</t>
+  </si>
+  <si>
+    <t>"gpu_call blocks + threads"</t>
+  </si>
+  <si>
+    <t>"https://github.com/ARM-software/armnn/issues/336"</t>
+  </si>
+  <si>
+    <t>"Invalid Backend ID GpuAcc"</t>
   </si>
 </sst>
 </file>
@@ -8439,10 +10155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7DED00-0D49-4FF3-B928-E7DE8616873A}">
-  <dimension ref="A1:C1253"/>
+  <dimension ref="A1:C1547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1222" workbookViewId="0">
-      <selection activeCell="A1248" sqref="A1248"/>
+    <sheetView tabSelected="1" topLeftCell="A1520" workbookViewId="0">
+      <selection activeCell="E1525" sqref="E1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18768,6 +20484,2386 @@
         <v>2460</v>
       </c>
     </row>
+    <row r="1255" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="138" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B1255" s="138" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="138" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B1256" s="138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="138" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1257" s="138" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="138" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1258" s="138" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="138" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B1259" s="138" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="138" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B1260" s="138" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C1260" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="138" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B1261" s="138" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1261" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="138" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B1262" s="138" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="138" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B1263" s="138" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="138" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1264" s="138" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="138" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1265" s="138" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="138" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1266" s="138" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="138" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1267" s="138" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="138" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1268" s="138" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="138" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1269" s="138" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="138" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1270" s="138" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="138" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1271" s="138" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1271" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="138" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1272" s="138" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="138" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1273" s="138" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="138" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1274" s="138" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1275" s="138" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="138" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1276" s="138" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1276" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1277" s="138" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="138" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1278" s="138" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="138" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1279" s="138" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="138" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B1280" s="138" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="138" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1281" s="138" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C1281" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1282" s="138" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="138" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B1283" s="138" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="138" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1284" s="138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="138" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1285" s="138" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="138" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1286" s="138" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="138" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1287" s="138" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="138" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1288" s="138" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="138" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1289" s="138" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="138" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1290" s="138" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="138" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1291" s="138" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="138" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1292" s="138" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="138" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B1293" s="138" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1294" s="138" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="138" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1295" s="138" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="138" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B1296" s="138" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="138" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1297" s="138" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="138" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1298" s="138" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="138" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1299" s="138" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="138" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1300" s="138" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="138" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1301" s="138" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="138" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1302" s="138" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="138" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1303" s="138" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="138" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B1304" s="138" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1305" s="138" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B1305" s="138" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="138" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1306" s="138" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1307" s="138" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1307" s="138" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C1307" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="138" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1308" s="138" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="138" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1309" s="138" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="138" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1310" s="138" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="138" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1311" s="138" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="138" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1312" s="138" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1313" s="138" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1313" s="138" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C1313" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="138" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1314" s="138" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1315" s="138" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1315" s="138" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="138" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B1316" s="138" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1316" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="138" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1317" s="138" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="138" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1318" s="138" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1319" s="138" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1319" s="138" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="138" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1320" s="138" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1321" s="138" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="138" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1322" s="138" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="138" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1323" s="138" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="138" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B1324" s="138" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1325" s="138" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B1325" s="138" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="138" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B1326" s="138" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1327" s="138" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B1327" s="138" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="138" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B1328" s="138" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1329" s="138" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1329" s="138" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="138" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1330" s="138" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="138" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1331" s="138" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="138" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1332" s="138" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="138" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1333" s="138" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="138" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1334" s="138" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="138" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B1335" s="138" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="138" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B1336" s="138" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="138" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1337" s="138" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="138" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B1338" s="138" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="138" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1339" s="138" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="138" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1340" s="138" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="138" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1341" s="138" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="138" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1342" s="138" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1342" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="138" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1343" s="138" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1344" s="138" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="138" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1346" s="138" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="138" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1347" s="138" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="138" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1348" s="138" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="138" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1349" s="138" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="138" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1350" s="138" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="138" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1351" s="138" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="138" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B1352" s="138" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="138" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1353" s="138" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C1353" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1354" s="138" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B1354" s="138" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1355" s="138" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1355" s="138" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1356" s="138" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B1356" s="138" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1357" s="138" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1357" s="138" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1358" s="138" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1358" s="138" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="138" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B1359" s="138" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1360" s="138" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1360" s="138" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="138" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B1361" s="138" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="138" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B1362" s="138" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1363" s="138" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B1363" s="138" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1363" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1364" s="138" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1364" s="138" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1365" s="138" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B1365" s="138" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1366" s="138" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1366" s="138" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1367" s="138" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1367" s="138" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1368" s="138" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B1368" s="138" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1369" s="138" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1369" s="138" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1370" s="138" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1370" s="138" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1371" s="138" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B1371" s="138" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1372" s="138" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1372" s="138" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1373" s="138" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B1373" s="138" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1374" s="138" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1374" s="138" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1374" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1375" s="138" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B1375" s="138" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1376" s="138" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B1376" s="138" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1377" s="138" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B1377" s="138" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1378" s="138" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1378" s="138" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1379" s="138" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1379" s="138" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1380" s="138" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1380" s="138" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1381" s="138" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1381" s="138" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1382" s="138" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B1382" s="138" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1383" s="138" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1383" s="138" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1384" s="138" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1384" s="138" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1385" s="138" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B1385" s="138" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1386" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1386" s="138" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1387" s="138" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1387" s="138" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1388" s="138" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1388" s="138" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1389" s="138" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1389" s="138" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1390" s="138" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1390" s="138" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1391" s="138" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1391" s="138" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1392" s="138" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1392" s="138" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1393" s="138" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1393" s="138" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1394" s="138" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1394" s="138" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1395" s="138" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1395" s="138" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1396" s="138" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1396" s="138" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1397" s="138" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1397" s="138" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1398" s="138" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1398" s="138" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1399" s="138" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B1399" s="138" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1400" s="138" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1400" s="138" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1401" s="138" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1401" s="138" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1402" s="138" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1402" s="138" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1403" s="138" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B1403" s="138" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C1403" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1404" s="138" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1404" s="138" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1405" s="138" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B1405" s="138" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1406" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B1406" s="138" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1407" s="138" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B1407" s="138" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1408" s="138" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B1408" s="138" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1409" s="138" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B1409" s="138" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1410" s="138" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B1410" s="138" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1411" s="138" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B1411" s="138" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1412" s="138" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B1412" s="138" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1414" s="138" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1414" s="138" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1415" s="138" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B1415" s="138" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1416" s="138" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1416" s="138" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1417" s="138" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B1417" s="138" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1418" s="138" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B1418" s="138" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1419" s="138" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B1419" s="138" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1420" s="138" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B1420" s="138" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1421" s="138" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B1421" s="138" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1422" s="138" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1422" s="138" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1423" s="138" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1423" s="138" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1424" s="138" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B1424" s="138" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1425" s="138" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1425" s="138" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C1425" s="138" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1426" s="138" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1426" s="138" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1427" s="138" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1427" s="138" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1428" s="138" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1428" s="138" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1429" s="138" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1429" s="138" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1430" s="138" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1430" s="138" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1431" s="138" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1431" s="138" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1432" s="138" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B1432" s="138" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1433" s="138" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1433" s="138" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1434" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1434" s="138" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1435" s="138" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B1435" s="138" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1436" s="138" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1436" s="138" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1437" s="138" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1437" s="138" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1438" s="138" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1438" s="138" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1439" s="138" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1439" s="138" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1439" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1440" s="138" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1440" s="138" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1441" s="138" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1441" s="138" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1442" s="138" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1442" s="138" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1443" s="138" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B1443" s="138" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1444" s="138" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1444" s="138" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1445" s="138" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1445" s="138" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1446" s="138" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1446" s="138" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1447" s="138" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1447" s="138" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1448" s="138" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1448" s="138" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1449" s="138" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1449" s="138" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1450" s="138" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B1450" s="138" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1451" s="138" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1451" s="138" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1452" s="138" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1452" s="138" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1453" s="138" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1453" s="138" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1454" s="138" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1454" s="138" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1455" s="138" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1455" s="138" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1456" s="138" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1456" s="138" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1457" s="138" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1457" s="138" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1458" s="138" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1458" s="138" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1459" s="138" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1459" s="138" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1460" s="138" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1460" s="138" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1461" s="138" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1461" s="138" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1462" s="138" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1462" s="138" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1463" s="138" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1463" s="138" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1464" s="138" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1464" s="138" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1465" s="138" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1465" s="138" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1466" s="138" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1466" s="138" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1467" s="138" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1467" s="138" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1468" s="138" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1468" s="138" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1469" s="138" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1469" s="138" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1470" s="138" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1470" s="138" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1471" s="138" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1471" s="138" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1472" s="138" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1472" s="138" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1473" s="138" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1473" s="138" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1474" s="138" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1474" s="138" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1475" s="138" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1475" s="138" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1476" s="138" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1476" s="138" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1477" s="138" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1477" s="138" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1478" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1478" s="138" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1479" s="138" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B1479" s="138" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1480" s="138" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1480" s="138" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1481" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1481" s="138" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1482" s="138" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1482" s="138" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1483" s="138" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1483" s="138" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1484" s="138" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1484" s="138" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1485" s="138" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B1485" s="138" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1486" s="138" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1486" s="138" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1487" s="138" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1487" s="138" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1488" s="138" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1488" s="138" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1490" s="138" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1490" s="138" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1491" s="138" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1491" s="138" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1492" s="138" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1492" s="138" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1493" s="138" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1493" s="138" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1494" s="138" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1494" s="138" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1495" s="138" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1495" s="138" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1496" s="138" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1496" s="138" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1497" s="138" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1497" s="138" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1498" s="138" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1498" s="138" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1499" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1499" s="138" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1500" s="138" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1500" s="138" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1501" s="138" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1501" s="138" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1502" s="138" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1502" s="138" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1503" s="138" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1503" s="138" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1504" s="138" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1504" s="138" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1505" s="138" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1505" s="138" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1505" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1506" s="138" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1506" s="138" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1507" s="138" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1507" s="138" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1508" s="138" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1508" s="138" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1508" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1509" s="138" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1509" s="138" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1510" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1510" s="138" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1511" s="138" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1511" s="138" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1512" s="138" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1512" s="138" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1513" s="138" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1513" s="138" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1514" s="138" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1514" s="138" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1515" s="138" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1515" s="138" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1516" s="138" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1516" s="138" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1517" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1517" s="138" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1518" s="138" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1518" s="138" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1519" s="138" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1519" s="138" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1520" s="138" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1520" s="138" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1521" s="138" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1521" s="138" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1521" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1522" s="138" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1522" s="138" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1523" s="138" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1523" s="138" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1524" s="138" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1524" s="138" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1525" s="138" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1525" s="138" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1526" s="138" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1526" s="138" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1527" s="138" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1527" s="138" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1528" s="138" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1528" s="138" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1529" s="138" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1529" s="138" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1530" s="138" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1530" s="138" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1530" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1531" s="138" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1531" s="138" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1532" s="138" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1532" s="138" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1533" s="138" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1533" s="138" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1534" s="138" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1534" s="138" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1535" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1535" s="138" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1536" s="138" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1536" s="138" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1537" s="138" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1537" s="138" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1538" s="138" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1538" s="138" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1539" s="138" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1539" s="138" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1540" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1540" s="138" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1541" s="138" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1541" s="138" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1542" s="138" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1542" s="138" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1542" s="138" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1543" s="138" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1543" s="138" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1544" s="138" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1544" s="138" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1545" s="138" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1545" s="138" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1546" s="138" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1546" s="138" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1547" s="138" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1547" s="138" t="s">
+        <v>3032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
